--- a/Teradata_Inventory.xlsx
+++ b/Teradata_Inventory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\04-Snowflake\SnowConvertLabs\snowconvert-lab-for-teradata-1\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcarrillo\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F18C955-8EC7-4F9E-BAA6-A971178BE3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82B29499-C96C-47B2-A15E-50EAABBD8976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-7440" windowWidth="29040" windowHeight="15840" xr2:uid="{7FDD6A83-2CBC-4F06-ABB5-88CA7EBD8307}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7FDD6A83-2CBC-4F06-ABB5-88CA7EBD8307}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="11" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,8 +39,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="71">
   <si>
     <t>LARGE</t>
   </si>
@@ -251,6 +273,9 @@
   <si>
     <t>Priority</t>
   </si>
+  <si>
+    <t>#N/A</t>
+  </si>
 </sst>
 </file>
 
@@ -259,7 +284,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +307,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -394,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -426,11 +457,306 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="58">
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1474,6 +1800,346 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
       <c:rotX val="15"/>
@@ -1529,7 +2195,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(blank)</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4151,11 +4817,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Tannia Gooden Morales" refreshedDate="44504.665194328707" missingItemsLimit="0" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="1" xr:uid="{83E3AED4-DE8C-4872-AEC8-62DBFE69BA82}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Marco Vinicio Carrillo Molina" refreshedDate="44508.663770486113" missingItemsLimit="0" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="1" xr:uid="{83E3AED4-DE8C-4872-AEC8-62DBFE69BA82}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table4"/>
   </cacheSource>
-  <cacheFields count="15">
+  <cacheFields count="28">
     <cacheField name="Object_Type" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
@@ -4195,14 +4861,53 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Size" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
+      <sharedItems count="1">
+        <e v="#N/A"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Manual Effort HH" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Automatic Effort HH" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Priority" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
-    <cacheField name="Automatic Effort HH" numFmtId="0">
+    <cacheField name="ID" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ConversionScope" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ConversionStatus" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ConversionDate" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Assigned to" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="TestingStatus" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="TestingDate" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ReTestingDate" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="DeliveryDate" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Notes" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ErrorType" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ErrorMessage" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
   </cacheFields>
@@ -4230,6 +4935,19 @@
     <m/>
     <m/>
     <x v="0"/>
+    <e v="#N/A"/>
+    <e v="#N/A"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -4237,9 +4955,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3EB7265E-D89C-4F89-9653-9FCD21FE6037}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A20:C23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{61FEB0F4-3415-4BEF-B505-033EB8430B1A}" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A1:B3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="28">
     <pivotField axis="axisRow" showAll="0">
       <items count="2">
         <item x="0"/>
@@ -4257,219 +4975,10 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="12"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Object_Name" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="10">
-    <format dxfId="11">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="10">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="7">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="12" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CF029A27-2369-4A6D-B049-B07FB0DE53CF}" name="PivotTable13" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A34:D36" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="15">
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Count of Object_Name" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Manual Effort HH" fld="13" baseField="0" baseItem="5"/>
-    <dataField name="Sum of Automatic Effort HH" fld="14" baseField="0" baseItem="5"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="12">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{61FEB0F4-3415-4BEF-B505-033EB8430B1A}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A1:B3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="15">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -4523,10 +5032,258 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3EB7265E-D89C-4F89-9653-9FCD21FE6037}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A20:C23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="28">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="12"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Object_Name" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="10">
+    <format dxfId="55">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="54">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="53">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="52">
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="51">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="50">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="49">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="48">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="47">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="12" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="46">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CF029A27-2369-4A6D-B049-B07FB0DE53CF}" name="PivotTable13" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A34:D36" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="28">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Count of Object_Name" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Manual Effort HH" fld="13" baseField="0" baseItem="5"/>
+    <dataField name="Sum of Automatic Effort HH" fld="14" baseField="0" baseItem="5"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="56">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB38E2F4-42BA-4959-A392-5C36F693C46E}" name="Table4" displayName="Table4" ref="A1:AB2" insertRow="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB38E2F4-42BA-4959-A392-5C36F693C46E}" name="Table4" displayName="Table4" ref="A1:AB2" totalsRowShown="0">
   <autoFilter ref="A1:AB2" xr:uid="{AB38E2F4-42BA-4959-A392-5C36F693C46E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O2">
     <sortCondition ref="M1:M2"/>
   </sortState>
   <tableColumns count="28">
@@ -4542,9 +5299,15 @@
     <tableColumn id="11" xr3:uid="{93775A9B-6017-4CBE-A581-11427B402B46}" name="ContentLines"/>
     <tableColumn id="12" xr3:uid="{C85BECFD-2C11-4E24-9788-84ACBC07E5BE}" name="CommentLines"/>
     <tableColumn id="13" xr3:uid="{B92E5548-248D-4029-85A3-52B00520C65D}" name="BlankLines"/>
-    <tableColumn id="14" xr3:uid="{77402EDD-701C-4F51-AFA9-8163541B823E}" name="Size" dataDxfId="13"/>
-    <tableColumn id="1" xr3:uid="{C9267C11-0461-4CDF-8902-4320C30E97CC}" name="Manual Effort HH"/>
-    <tableColumn id="15" xr3:uid="{DD5CA0F8-9163-43B4-9AFC-4BC3CBF4A147}" name="Automatic Effort HH"/>
+    <tableColumn id="14" xr3:uid="{77402EDD-701C-4F51-AFA9-8163541B823E}" name="Size" dataDxfId="57">
+      <calculatedColumnFormula array="1">_xlfn.SWITCH(Table4[[#This Row],[Object_Type]],"TABLE",IF(Table4[[#This Row],[ContentLines]]&gt;500,"LARGE",IF(AND(Table4[[#This Row],[ContentLines]]&lt;=500,Table4[[#This Row],[ContentLines]]&gt;=200),"MEDIUM","SMALL")),"VIEW", IF(Table4[[#This Row],[ContentLines]]&gt;500,"LARGE",IF(AND(Table4[[#This Row],[ContentLines]]&lt;=500,Table4[[#This Row],[ContentLines]]&gt;=200),"MEDIUM","SMALL")),"JOIN INDEX", IF(Table4[[#This Row],[ContentLines]]&gt;500,"LARGE",IF(AND(Table4[[#This Row],[ContentLines]]&lt;=500,Table4[[#This Row],[ContentLines]]&gt;=200),"MEDIUM","SMALL")),"MACRO", IF(Table4[[#This Row],[ContentLines]]&gt;500,"LARGE",IF(AND(Table4[[#This Row],[ContentLines]]&lt;=500,Table4[[#This Row],[ContentLines]]&gt;=200),"MEDIUM","SMALL")),"PROCEDURE", IF(Table4[[#This Row],[ContentLines]]&gt;500,"LARGE",IF(AND(Table4[[#This Row],[ContentLines]]&lt;=500,Table4[[#This Row],[ContentLines]]&gt;=200),"MEDIUM","SMALL")),"FUNCTION", IF(Table4[[#This Row],[ContentLines]]&gt;500,"LARGE",IF(AND(Table4[[#This Row],[ContentLines]]&lt;=500,Table4[[#This Row],[ContentLines]]&gt;=100),"MEDIUM","SMALL")),"BTEQ", IF(Table4[[#This Row],[ContentLines]]&gt;500,"LARGE",IF(AND(Table4[[#This Row],[ContentLines]]&lt;=500,Table4[[#This Row],[ContentLines]]&gt;=150),"MEDIUM","SMALL")),"FASTLOAD", IF(Table4[[#This Row],[ContentLines]]&gt;500,"LARGE",IF(AND(Table4[[#This Row],[ContentLines]]&lt;=500,Table4[[#This Row],[ContentLines]]&gt;=150),"MEDIUM","SMALL")),"MULTILOAD", IF(Table4[[#This Row],[ContentLines]]&gt;500,"LARGE",IF(AND(Table4[[#This Row],[ContentLines]]&lt;=500,Table4[[#This Row],[ContentLines]]&gt;=150),"MEDIUM","SMALL")),"TPT", IF(Table4[[#This Row],[ContentLines]]&gt;500,"LARGE",IF(AND(Table4[[#This Row],[ContentLines]]&lt;=500,Table4[[#This Row],[ContentLines]]&gt;=150),"MEDIUM","SMALL")),"TPUMP", IF(Table4[[#This Row],[ContentLines]]&gt;500,"LARGE",IF(AND(Table4[[#This Row],[ContentLines]]&lt;=500,Table4[[#This Row],[ContentLines]]&gt;=150),"MEDIUM","SMALL")))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" xr3:uid="{C9267C11-0461-4CDF-8902-4320C30E97CC}" name="Manual Effort HH" dataDxfId="43">
+      <calculatedColumnFormula>VLOOKUP(Table4[[#This Row],[Object_Type]]&amp;Table4[[#This Row],[Size]],Table3[#All],4,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{DD5CA0F8-9163-43B4-9AFC-4BC3CBF4A147}" name="Automatic Effort HH" dataDxfId="42">
+      <calculatedColumnFormula>VLOOKUP(Table4[[#This Row],[Object_Type]]&amp;Table4[[#This Row],[Size]],Table36[#All],4,FALSE)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="28" xr3:uid="{6D06FBDA-4D0D-4C31-954C-468862C6AFC2}" name="Priority"/>
     <tableColumn id="16" xr3:uid="{3CA1A595-8A7F-488F-A976-1B1416AA04AC}" name="ID"/>
     <tableColumn id="17" xr3:uid="{7D15A6B8-FFD9-4B41-A35A-0AC7838ED5AE}" name="ConversionScope"/>
@@ -4567,7 +5330,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{342AA290-F65D-4A90-803A-D382147BB934}" name="Table3" displayName="Table3" ref="A1:D34" totalsRowShown="0">
   <autoFilter ref="A1:D34" xr:uid="{342AA290-F65D-4A90-803A-D382147BB934}"/>
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{BB4CDA3B-60DF-4A43-B625-0433AECD5EB6}" name="ID" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{BB4CDA3B-60DF-4A43-B625-0433AECD5EB6}" name="ID" dataDxfId="45">
       <calculatedColumnFormula>_xlfn.CONCAT(Table3[[#This Row],[OBJECT_TYPE]],Table3[[#This Row],[SIZE]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{F5F730FC-BD89-4B8F-9EED-E64D478ACF60}" name="OBJECT_TYPE"/>
@@ -4582,7 +5345,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9ABBB3D5-22AB-4FFA-BEFB-33B1AF41C75E}" name="Table36" displayName="Table36" ref="G1:J34" totalsRowShown="0">
   <autoFilter ref="G1:J34" xr:uid="{9ABBB3D5-22AB-4FFA-BEFB-33B1AF41C75E}"/>
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{1E3B0162-8CD4-4440-923A-9114CA6C068F}" name="ID" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{1E3B0162-8CD4-4440-923A-9114CA6C068F}" name="ID" dataDxfId="44">
       <calculatedColumnFormula>_xlfn.CONCAT(Table36[[#This Row],[OBJECT_TYPE]],Table36[[#This Row],[SIZE]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{F06890F3-2388-49B2-9211-5B4421590E0F}" name="OBJECT_TYPE"/>
@@ -4890,10 +5653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630C4374-F041-4595-987E-88C0D9C80748}">
-  <dimension ref="A1:AB851"/>
+  <dimension ref="A1:AB777"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4999,6 +5762,20 @@
         <v>68</v>
       </c>
     </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M2" s="25" t="e" cm="1">
+        <f t="array" ref="M2">_xlfn.SWITCH(Table4[[#This Row],[Object_Type]],"TABLE",IF(Table4[[#This Row],[ContentLines]]&gt;500,"LARGE",IF(AND(Table4[[#This Row],[ContentLines]]&lt;=500,Table4[[#This Row],[ContentLines]]&gt;=200),"MEDIUM","SMALL")),"VIEW", IF(Table4[[#This Row],[ContentLines]]&gt;500,"LARGE",IF(AND(Table4[[#This Row],[ContentLines]]&lt;=500,Table4[[#This Row],[ContentLines]]&gt;=200),"MEDIUM","SMALL")),"JOIN INDEX", IF(Table4[[#This Row],[ContentLines]]&gt;500,"LARGE",IF(AND(Table4[[#This Row],[ContentLines]]&lt;=500,Table4[[#This Row],[ContentLines]]&gt;=200),"MEDIUM","SMALL")),"MACRO", IF(Table4[[#This Row],[ContentLines]]&gt;500,"LARGE",IF(AND(Table4[[#This Row],[ContentLines]]&lt;=500,Table4[[#This Row],[ContentLines]]&gt;=200),"MEDIUM","SMALL")),"PROCEDURE", IF(Table4[[#This Row],[ContentLines]]&gt;500,"LARGE",IF(AND(Table4[[#This Row],[ContentLines]]&lt;=500,Table4[[#This Row],[ContentLines]]&gt;=200),"MEDIUM","SMALL")),"FUNCTION", IF(Table4[[#This Row],[ContentLines]]&gt;500,"LARGE",IF(AND(Table4[[#This Row],[ContentLines]]&lt;=500,Table4[[#This Row],[ContentLines]]&gt;=100),"MEDIUM","SMALL")),"BTEQ", IF(Table4[[#This Row],[ContentLines]]&gt;500,"LARGE",IF(AND(Table4[[#This Row],[ContentLines]]&lt;=500,Table4[[#This Row],[ContentLines]]&gt;=150),"MEDIUM","SMALL")),"FASTLOAD", IF(Table4[[#This Row],[ContentLines]]&gt;500,"LARGE",IF(AND(Table4[[#This Row],[ContentLines]]&lt;=500,Table4[[#This Row],[ContentLines]]&gt;=150),"MEDIUM","SMALL")),"MULTILOAD", IF(Table4[[#This Row],[ContentLines]]&gt;500,"LARGE",IF(AND(Table4[[#This Row],[ContentLines]]&lt;=500,Table4[[#This Row],[ContentLines]]&gt;=150),"MEDIUM","SMALL")),"TPT", IF(Table4[[#This Row],[ContentLines]]&gt;500,"LARGE",IF(AND(Table4[[#This Row],[ContentLines]]&lt;=500,Table4[[#This Row],[ContentLines]]&gt;=150),"MEDIUM","SMALL")),"TPUMP", IF(Table4[[#This Row],[ContentLines]]&gt;500,"LARGE",IF(AND(Table4[[#This Row],[ContentLines]]&lt;=500,Table4[[#This Row],[ContentLines]]&gt;=150),"MEDIUM","SMALL")))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N2" t="e">
+        <f>VLOOKUP(Table4[[#This Row],[Object_Type]]&amp;Table4[[#This Row],[Size]],Table3[#All],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O2" t="e">
+        <f>VLOOKUP(Table4[[#This Row],[Object_Type]]&amp;Table4[[#This Row],[Size]],Table36[#All],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="M3" s="3"/>
     </row>
@@ -7323,228 +8100,6 @@
     </row>
     <row r="777" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M777" s="3"/>
-    </row>
-    <row r="778" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M778" s="3"/>
-    </row>
-    <row r="779" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M779" s="3"/>
-    </row>
-    <row r="780" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M780" s="3"/>
-    </row>
-    <row r="781" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M781" s="3"/>
-    </row>
-    <row r="782" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M782" s="3"/>
-    </row>
-    <row r="783" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M783" s="3"/>
-    </row>
-    <row r="784" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M784" s="3"/>
-    </row>
-    <row r="785" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M785" s="3"/>
-    </row>
-    <row r="786" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M786" s="3"/>
-    </row>
-    <row r="787" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M787" s="3"/>
-    </row>
-    <row r="788" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M788" s="3"/>
-    </row>
-    <row r="789" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M789" s="3"/>
-    </row>
-    <row r="790" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M790" s="3"/>
-    </row>
-    <row r="791" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M791" s="3"/>
-    </row>
-    <row r="792" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M792" s="3"/>
-    </row>
-    <row r="793" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M793" s="3"/>
-    </row>
-    <row r="794" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M794" s="3"/>
-    </row>
-    <row r="795" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M795" s="3"/>
-    </row>
-    <row r="796" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M796" s="3"/>
-    </row>
-    <row r="797" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M797" s="3"/>
-    </row>
-    <row r="798" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M798" s="3"/>
-    </row>
-    <row r="799" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M799" s="3"/>
-    </row>
-    <row r="800" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M800" s="3"/>
-    </row>
-    <row r="801" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M801" s="3"/>
-    </row>
-    <row r="802" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M802" s="3"/>
-    </row>
-    <row r="803" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M803" s="3"/>
-    </row>
-    <row r="804" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M804" s="3"/>
-    </row>
-    <row r="805" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M805" s="3"/>
-    </row>
-    <row r="806" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M806" s="3"/>
-    </row>
-    <row r="807" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M807" s="3"/>
-    </row>
-    <row r="808" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M808" s="3"/>
-    </row>
-    <row r="809" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M809" s="3"/>
-    </row>
-    <row r="810" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M810" s="3"/>
-    </row>
-    <row r="811" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M811" s="3"/>
-    </row>
-    <row r="812" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M812" s="3"/>
-    </row>
-    <row r="813" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M813" s="3"/>
-    </row>
-    <row r="814" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M814" s="3"/>
-    </row>
-    <row r="815" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M815" s="3"/>
-    </row>
-    <row r="816" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M816" s="3"/>
-    </row>
-    <row r="817" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M817" s="3"/>
-    </row>
-    <row r="818" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M818" s="3"/>
-    </row>
-    <row r="819" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M819" s="3"/>
-    </row>
-    <row r="820" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M820" s="3"/>
-    </row>
-    <row r="821" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M821" s="3"/>
-    </row>
-    <row r="822" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M822" s="3"/>
-    </row>
-    <row r="823" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M823" s="3"/>
-    </row>
-    <row r="824" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M824" s="3"/>
-    </row>
-    <row r="825" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M825" s="3"/>
-    </row>
-    <row r="826" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M826" s="3"/>
-    </row>
-    <row r="827" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M827" s="3"/>
-    </row>
-    <row r="828" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M828" s="3"/>
-    </row>
-    <row r="829" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M829" s="3"/>
-    </row>
-    <row r="830" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M830" s="3"/>
-    </row>
-    <row r="831" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M831" s="3"/>
-    </row>
-    <row r="832" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M832" s="3"/>
-    </row>
-    <row r="833" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M833" s="3"/>
-    </row>
-    <row r="834" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M834" s="3"/>
-    </row>
-    <row r="835" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M835" s="3"/>
-    </row>
-    <row r="836" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M836" s="3"/>
-    </row>
-    <row r="837" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M837" s="3"/>
-    </row>
-    <row r="838" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M838" s="3"/>
-    </row>
-    <row r="839" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M839" s="3"/>
-    </row>
-    <row r="840" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M840" s="3"/>
-    </row>
-    <row r="841" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M841" s="3"/>
-    </row>
-    <row r="842" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M842" s="3"/>
-    </row>
-    <row r="843" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M843" s="3"/>
-    </row>
-    <row r="844" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M844" s="3"/>
-    </row>
-    <row r="845" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M845" s="3"/>
-    </row>
-    <row r="846" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M846" s="3"/>
-    </row>
-    <row r="847" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M847" s="3"/>
-    </row>
-    <row r="848" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M848" s="3"/>
-    </row>
-    <row r="849" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M849" s="3"/>
-    </row>
-    <row r="850" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M850" s="3"/>
-    </row>
-    <row r="851" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M851" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7559,18 +8114,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B372C942-AB56-42BB-B22B-5FDF179A2904}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.21875" bestFit="1" customWidth="1"/>
@@ -7664,7 +8219,6 @@
         <v>14</v>
       </c>
       <c r="C20" s="22"/>
-      <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
     </row>
@@ -7673,12 +8227,11 @@
         <v>15</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
     </row>
@@ -7688,7 +8241,6 @@
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
-      <c r="F22" s="22"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
     </row>
@@ -7698,62 +8250,38 @@
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
-      <c r="F23" s="22"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F24" s="22"/>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F25" s="22"/>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F27" s="22"/>
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F28" s="22"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
     </row>
@@ -7786,16 +8314,24 @@
         <v>57</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+      <c r="C35" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D35" s="4" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="C36" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D36" s="4" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D48" s="8"/>
@@ -8791,8 +9327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF235C60-5635-44FB-8EA1-DF52D2044879}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8886,9 +9422,9 @@
       <c r="B10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="6" t="e">
-        <f>GETPIVOTDATA("Sum of Automatic Effort HH",Pivots!$A$34,"Object_Type","JOIN INDEX")</f>
-        <v>#REF!</v>
+      <c r="C10" s="6">
+        <f>IFERROR(GETPIVOTDATA("Sum of Automatic Effort HH",Pivots!$A$34,"Object_Type","JOIN INDEX"),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -9104,9 +9640,9 @@
       <c r="B35" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="11" t="e">
+      <c r="C35" s="11">
         <f>ROUNDUP(SUM(C3:C31),0)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
